--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A95122-0E4F-4E72-B38E-E01456DA4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A313BD4-DCE6-42E0-AC29-818FDEA739B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="862">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3283,6 +3283,194 @@
   <si>
     <t>evolution</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expansion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egyptian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dutch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vessel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3362,7 +3550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3370,6 +3558,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3752,11 +3942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:F564"/>
+  <dimension ref="A1:N597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O59" sqref="O59"/>
+      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G578" sqref="G578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7746,6 +7936,9 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>900</v>
+      </c>
       <c r="B539" s="3" t="s">
         <v>764</v>
       </c>
@@ -7754,6 +7947,9 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>900</v>
+      </c>
       <c r="B540" s="3" t="s">
         <v>766</v>
       </c>
@@ -7762,6 +7958,9 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>900</v>
+      </c>
       <c r="B541" s="3" t="s">
         <v>768</v>
       </c>
@@ -7770,6 +7969,9 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>900</v>
+      </c>
       <c r="B542" s="3" t="s">
         <v>770</v>
       </c>
@@ -7778,6 +7980,9 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>900</v>
+      </c>
       <c r="B543" s="3" t="s">
         <v>772</v>
       </c>
@@ -7786,6 +7991,9 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="3">
+        <v>900</v>
+      </c>
       <c r="B544" s="3" t="s">
         <v>774</v>
       </c>
@@ -7793,7 +8001,10 @@
         <v>775</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>900</v>
+      </c>
       <c r="B545" s="3" t="s">
         <v>776</v>
       </c>
@@ -7801,7 +8012,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
+        <v>900</v>
+      </c>
       <c r="B546" s="3" t="s">
         <v>778</v>
       </c>
@@ -7809,7 +8023,10 @@
         <v>779</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>900</v>
+      </c>
       <c r="B547" s="3" t="s">
         <v>780</v>
       </c>
@@ -7817,7 +8034,10 @@
         <v>781</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="3">
+        <v>900</v>
+      </c>
       <c r="B548" s="3" t="s">
         <v>782</v>
       </c>
@@ -7825,7 +8045,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>900</v>
+      </c>
       <c r="B549" s="3" t="s">
         <v>784</v>
       </c>
@@ -7833,7 +8056,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="3">
+        <v>900</v>
+      </c>
       <c r="B550" s="3" t="s">
         <v>785</v>
       </c>
@@ -7841,7 +8067,10 @@
         <v>786</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>900</v>
+      </c>
       <c r="B551" s="3" t="s">
         <v>787</v>
       </c>
@@ -7849,7 +8078,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="3">
+        <v>900</v>
+      </c>
       <c r="B552" s="3" t="s">
         <v>789</v>
       </c>
@@ -7857,7 +8089,10 @@
         <v>790</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>900</v>
+      </c>
       <c r="B553" s="3" t="s">
         <v>791</v>
       </c>
@@ -7865,7 +8100,10 @@
         <v>792</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="3">
+        <v>900</v>
+      </c>
       <c r="B554" s="3" t="s">
         <v>793</v>
       </c>
@@ -7873,7 +8111,10 @@
         <v>794</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>900</v>
+      </c>
       <c r="B555" s="3" t="s">
         <v>795</v>
       </c>
@@ -7881,7 +8122,10 @@
         <v>796</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="3">
+        <v>900</v>
+      </c>
       <c r="B556" s="3" t="s">
         <v>797</v>
       </c>
@@ -7889,7 +8133,10 @@
         <v>798</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>900</v>
+      </c>
       <c r="B557" s="3" t="s">
         <v>799</v>
       </c>
@@ -7897,7 +8144,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>900</v>
+      </c>
       <c r="B558" s="3" t="s">
         <v>801</v>
       </c>
@@ -7905,7 +8155,10 @@
         <v>802</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>900</v>
+      </c>
       <c r="B559" s="3" t="s">
         <v>803</v>
       </c>
@@ -7913,7 +8166,10 @@
         <v>804</v>
       </c>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="3">
+        <v>900</v>
+      </c>
       <c r="B560" s="3" t="s">
         <v>805</v>
       </c>
@@ -7921,7 +8177,10 @@
         <v>806</v>
       </c>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>900</v>
+      </c>
       <c r="B561" s="3" t="s">
         <v>807</v>
       </c>
@@ -7929,7 +8188,10 @@
         <v>808</v>
       </c>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A562" s="3">
+        <v>900</v>
+      </c>
       <c r="B562" s="3" t="s">
         <v>809</v>
       </c>
@@ -7937,7 +8199,10 @@
         <v>810</v>
       </c>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>900</v>
+      </c>
       <c r="B563" s="3" t="s">
         <v>811</v>
       </c>
@@ -7945,12 +8210,322 @@
         <v>812</v>
       </c>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A564" s="3">
+        <v>900</v>
+      </c>
       <c r="B564" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C564" s="3" t="s">
         <v>814</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>900</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>900</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>900</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>900</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>900</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>900</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="N570" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>900</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>900</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>900</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>900</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>900</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>900</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>900</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>900</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G578" s="6"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>900</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>900</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
+        <v>900</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>900</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
+        <v>900</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>900</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
+        <v>900</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>900</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A587" s="5">
+        <v>900</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A588" s="3">
+        <v>900</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A589" s="5">
+        <v>900</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A590" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A591" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A592" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A313BD4-DCE6-42E0-AC29-818FDEA739B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF6F15-E196-4C5C-ABB5-A1C3F7AA410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="962">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3470,6 +3470,406 @@
   </si>
   <si>
     <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democrat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquifer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muscle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breathe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pheromone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diversity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>era</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>British</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eighteenyh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opportunity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kilometer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inhabitant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fungus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absorb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3942,11 +4342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:N597"/>
+  <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G578" sqref="G578"/>
+      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P623" sqref="P623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8492,40 +8892,570 @@
       <c r="A590" s="4">
         <v>1000</v>
       </c>
+      <c r="B590" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="3">
         <v>1000</v>
       </c>
+      <c r="B591" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="3">
         <v>1000</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A638" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A640" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A641" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A642" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A643" s="3">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF6F15-E196-4C5C-ABB5-A1C3F7AA410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CDE032-9450-4942-A2F4-8490499AED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1062">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3870,6 +3870,406 @@
   </si>
   <si>
     <t>basin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>television</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valuable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approximate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhythm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ritual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electrical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tissue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increasingly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4342,17 +4742,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:N643"/>
+  <dimension ref="A1:N704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P623" sqref="P623"/>
+      <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H689" sqref="H689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
@@ -9452,10 +9852,615 @@
       <c r="A642" s="4">
         <v>1001</v>
       </c>
+      <c r="B642" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="3">
         <v>1001</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B644" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A645" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B645" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A646" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A648" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A649" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A653" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A659" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A662" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A663" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CDE032-9450-4942-A2F4-8490499AED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC186F-CB60-49AD-BBF4-2A96A70FCFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1162">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4270,6 +4270,406 @@
   </si>
   <si>
     <t>increasingly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertisement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastoralist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Britain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leatherback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>civilization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventeenth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceramic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right-handed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lichen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>habitat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coastal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wherease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>California</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dominate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>significance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4742,11 +5142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:N704"/>
+  <dimension ref="A1:N766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H689" sqref="H689"/>
+      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F742" sqref="F742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10344,7 +10744,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="3">
         <v>1001</v>
       </c>
@@ -10352,7 +10752,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="3">
         <v>1001</v>
       </c>
@@ -10360,7 +10760,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="3">
         <v>1001</v>
       </c>
@@ -10368,7 +10768,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="3">
         <v>1001</v>
       </c>
@@ -10376,7 +10776,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="3">
         <v>1001</v>
       </c>
@@ -10384,7 +10784,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="3">
         <v>1001</v>
       </c>
@@ -10392,7 +10792,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="3">
         <v>1001</v>
       </c>
@@ -10400,7 +10800,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="3">
         <v>1001</v>
       </c>
@@ -10408,7 +10808,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="3">
         <v>1001</v>
       </c>
@@ -10416,7 +10816,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="3">
         <v>1001</v>
       </c>
@@ -10424,7 +10824,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="3">
         <v>1001</v>
       </c>
@@ -10432,7 +10832,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="3">
         <v>1001</v>
       </c>
@@ -10440,7 +10840,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="3">
         <v>1001</v>
       </c>
@@ -10448,19 +10848,629 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B702" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="3">
         <v>1002</v>
       </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B703" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="3">
         <v>1002</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="3">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC186F-CB60-49AD-BBF4-2A96A70FCFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E5199F-AAC9-4917-A41E-504B72585933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1261">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4670,6 +4670,402 @@
   </si>
   <si>
     <t>Mexico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>factual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phenomenon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paleolothic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machinery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaporate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecologist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innnovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timberline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>association</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaptation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contemporary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vapor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threaten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5142,11 +5538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:N766"/>
+  <dimension ref="A1:N807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F742" sqref="F742"/>
+      <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H808" sqref="H808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11394,7 +11790,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="3">
         <v>1002</v>
       </c>
@@ -11402,7 +11798,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="3">
         <v>1002</v>
       </c>
@@ -11410,7 +11806,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="3">
         <v>1002</v>
       </c>
@@ -11418,59 +11814,564 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="4">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1300</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="3">
-        <v>1003</v>
+        <v>1300</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A779" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A780" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A781" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A782" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A783" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A784" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A785" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A786" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A787" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A788" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A789" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A790" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A791" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A792" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A793" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A794" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A795" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A796" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A797" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A798" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A799" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A800" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A801" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A802" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A803" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A804" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A805" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A806" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A807" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>1259</v>
       </c>
     </row>
   </sheetData>

--- a/笔记鲨.xlsx
+++ b/笔记鲨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\Github\GitEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E5199F-AAC9-4917-A41E-504B72585933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F63463-A7D9-4FB5-9031-BA3BD9F65957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2220A45-7711-40BA-B31A-D0627F4FC2C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1361">
   <si>
     <t>熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5066,6 +5066,406 @@
   </si>
   <si>
     <t>capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>employ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immigrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>civil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prehistoric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsidian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migratory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nesting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>president</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parasite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocabulary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancestor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pullman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beyond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desertification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>army</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogallala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophisticated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archaeological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twenty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5538,18 +5938,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2850273-5095-4D8E-A475-3AA86365ECB2}">
-  <dimension ref="A1:N807"/>
+  <dimension ref="A1:N859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H808" sqref="H808"/>
+      <pane ySplit="1" topLeftCell="A824" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H852" sqref="H852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -12374,6 +12774,566 @@
         <v>1259</v>
       </c>
     </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A808" s="4">
+        <v>1400</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A809" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A810" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A811" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A812" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A813" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A814" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A815" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A816" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A817" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A818" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A819" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A820" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A821" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A822" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A823" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A824" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A825" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A826" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A827" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A828" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A829" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A830" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A831" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A832" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A833" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A834" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A835" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C835" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A836" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A837" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A838" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A839" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A840" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A841" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A842" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A843" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A844" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A845" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A846" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A847" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A848" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A849" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A850" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C850" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A851" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A852" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A853" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A854" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A855" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A856" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A857" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A858" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A859" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
